--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.15843966880193</v>
+        <v>88.45036673019499</v>
       </c>
       <c r="D2" t="n">
-        <v>13.96339811461434</v>
+        <v>16.83243803670829</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.28819993795727</v>
+        <v>89.00294429754602</v>
       </c>
       <c r="D3" t="n">
-        <v>15.63461439028009</v>
+        <v>14.22375993191988</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.6784571498377</v>
+        <v>87.8222702508873</v>
       </c>
       <c r="D4" t="n">
-        <v>16.20964648552334</v>
+        <v>12.6291237022451</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.22851103640525</v>
+        <v>86.64175436656816</v>
       </c>
       <c r="D5" t="n">
-        <v>15.50141667406225</v>
+        <v>13.54045150341373</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.4075183799898</v>
+        <v>86.07612003297132</v>
       </c>
       <c r="D6" t="n">
-        <v>17.84989809307952</v>
+        <v>13.06054938275153</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.70519344246208</v>
+        <v>86.73146200578012</v>
       </c>
       <c r="D7" t="n">
-        <v>13.73368849099128</v>
+        <v>15.5092367539233</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.35717266237931</v>
+        <v>81.68608669511718</v>
       </c>
       <c r="D8" t="n">
-        <v>14.88701978776738</v>
+        <v>15.57708911455245</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.23018908846259</v>
+        <v>82.84392522109941</v>
       </c>
       <c r="D9" t="n">
-        <v>15.85711908813587</v>
+        <v>16.27111221059943</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.70252395116205</v>
+        <v>82.95458118314713</v>
       </c>
       <c r="D10" t="n">
-        <v>15.49859168902193</v>
+        <v>14.18885047911021</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.40177499009341</v>
+        <v>81.68540863323328</v>
       </c>
       <c r="D11" t="n">
-        <v>14.24068987464615</v>
+        <v>14.40678591651928</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.92998161929482</v>
+        <v>78.96909879344952</v>
       </c>
       <c r="D12" t="n">
-        <v>12.78565521140028</v>
+        <v>14.75871454409556</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.89581107916027</v>
+        <v>80.51138495231959</v>
       </c>
       <c r="D13" t="n">
-        <v>14.84957463158112</v>
+        <v>15.25629462742857</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.76793985276454</v>
+        <v>79.0397540207116</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7323830005669</v>
+        <v>15.05994191275154</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.52099859181727</v>
+        <v>80.4734700765384</v>
       </c>
       <c r="D15" t="n">
-        <v>15.79225844473971</v>
+        <v>14.65869757604001</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.84619218788309</v>
+        <v>77.77315323544984</v>
       </c>
       <c r="D16" t="n">
-        <v>16.16893730605327</v>
+        <v>15.15070848988078</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.03223758387125</v>
+        <v>74.12752680089608</v>
       </c>
       <c r="D17" t="n">
-        <v>14.64526544395345</v>
+        <v>14.66604036248366</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.17530390659185</v>
+        <v>73.17629397574454</v>
       </c>
       <c r="D18" t="n">
-        <v>15.16968221265509</v>
+        <v>14.4959321574228</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.6000952093306</v>
+        <v>72.44616818836327</v>
       </c>
       <c r="D19" t="n">
-        <v>14.84600978076128</v>
+        <v>16.51267137517808</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.11550264185776</v>
+        <v>72.93226255434438</v>
       </c>
       <c r="D20" t="n">
-        <v>16.14760494551807</v>
+        <v>13.24032962977817</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.88093857756181</v>
+        <v>67.82608880944341</v>
       </c>
       <c r="D21" t="n">
-        <v>16.54108177181751</v>
+        <v>14.5410222398858</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.90260185101371</v>
+        <v>69.38337812930135</v>
       </c>
       <c r="D22" t="n">
-        <v>15.13820194586194</v>
+        <v>16.58244780535417</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.26202089479118</v>
+        <v>70.56003375983215</v>
       </c>
       <c r="D23" t="n">
-        <v>14.96873175082935</v>
+        <v>14.2240303018229</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.74589950798659</v>
+        <v>67.725889967556</v>
       </c>
       <c r="D24" t="n">
-        <v>16.08839153635291</v>
+        <v>14.2085604743146</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.87217899576625</v>
+        <v>66.13675564607473</v>
       </c>
       <c r="D25" t="n">
-        <v>16.23103985166173</v>
+        <v>14.72816977040607</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.88966796343225</v>
+        <v>63.69686030627554</v>
       </c>
       <c r="D26" t="n">
-        <v>15.19017539906482</v>
+        <v>14.66978960050585</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.36815107035284</v>
+        <v>62.58604267291442</v>
       </c>
       <c r="D27" t="n">
-        <v>13.96955329942109</v>
+        <v>14.75936247720631</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.05103661112908</v>
+        <v>64.08622156007944</v>
       </c>
       <c r="D28" t="n">
-        <v>15.25245779882253</v>
+        <v>14.52948835978246</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.67447672183316</v>
+        <v>61.39538097265998</v>
       </c>
       <c r="D29" t="n">
-        <v>14.95633444455728</v>
+        <v>14.78996277376077</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.66185168070133</v>
+        <v>60.50557214274239</v>
       </c>
       <c r="D30" t="n">
-        <v>14.58274328949688</v>
+        <v>16.22920366838619</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35299468023628</v>
+        <v>61.05262997012598</v>
       </c>
       <c r="D31" t="n">
-        <v>16.47817961381478</v>
+        <v>14.56077891327911</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.71241081561857</v>
+        <v>57.91628978301483</v>
       </c>
       <c r="D32" t="n">
-        <v>15.50540166291829</v>
+        <v>13.72150835433992</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>62.20199953896639</v>
+        <v>59.05656819568458</v>
       </c>
       <c r="D33" t="n">
-        <v>16.463563206702</v>
+        <v>15.50918675372715</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.21962727172085</v>
+        <v>59.25289229742106</v>
       </c>
       <c r="D34" t="n">
-        <v>15.73738859245283</v>
+        <v>14.93232517629276</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.69899928358702</v>
+        <v>55.09513998196157</v>
       </c>
       <c r="D35" t="n">
-        <v>14.93903852616109</v>
+        <v>16.46607148660951</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.87466260777627</v>
+        <v>53.95515129494222</v>
       </c>
       <c r="D36" t="n">
-        <v>16.5526393467719</v>
+        <v>15.70456926741399</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.64909894449398</v>
+        <v>52.09972829000698</v>
       </c>
       <c r="D37" t="n">
-        <v>16.9381189273395</v>
+        <v>16.6236376216565</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.18025359769617</v>
+        <v>52.40767561971048</v>
       </c>
       <c r="D38" t="n">
-        <v>17.26356570573316</v>
+        <v>16.24436604290926</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.51424170326355</v>
+        <v>52.51310141480008</v>
       </c>
       <c r="D39" t="n">
-        <v>13.45668878448216</v>
+        <v>15.4823436080095</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>48.78634373900149</v>
+        <v>51.13013687263028</v>
       </c>
       <c r="D40" t="n">
-        <v>14.199462354587</v>
+        <v>17.27401694342299</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.20337772931651</v>
+        <v>50.87840182953182</v>
       </c>
       <c r="D41" t="n">
-        <v>16.36263962601465</v>
+        <v>14.68577586158811</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.3186859824341</v>
+        <v>47.04175567084197</v>
       </c>
       <c r="D42" t="n">
-        <v>14.22395125306414</v>
+        <v>12.67495609412279</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.98588544938518</v>
+        <v>49.40809652433153</v>
       </c>
       <c r="D43" t="n">
-        <v>15.19790132028585</v>
+        <v>13.46715271020959</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.54087555402467</v>
+        <v>49.041639621367</v>
       </c>
       <c r="D44" t="n">
-        <v>16.50866226765517</v>
+        <v>16.38398871200112</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.24855146711074</v>
+        <v>46.45640658259167</v>
       </c>
       <c r="D45" t="n">
-        <v>15.01605665156865</v>
+        <v>14.49357856976247</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.70054156767826</v>
+        <v>43.7185482135446</v>
       </c>
       <c r="D46" t="n">
-        <v>14.28471007434086</v>
+        <v>14.51240105828794</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.19588800215064</v>
+        <v>44.84428295762405</v>
       </c>
       <c r="D47" t="n">
-        <v>15.69794917943377</v>
+        <v>15.14420229328698</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.40625923591035</v>
+        <v>42.9518632933295</v>
       </c>
       <c r="D48" t="n">
-        <v>16.13449298331306</v>
+        <v>16.89858411921062</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.07093577438383</v>
+        <v>44.3851267640256</v>
       </c>
       <c r="D49" t="n">
-        <v>14.75282805610084</v>
+        <v>13.64055228381301</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.94909607466947</v>
+        <v>42.25873106533076</v>
       </c>
       <c r="D50" t="n">
-        <v>16.896622157491</v>
+        <v>15.19405315178633</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.52412072571866</v>
+        <v>41.38652472096235</v>
       </c>
       <c r="D51" t="n">
-        <v>16.08564087960477</v>
+        <v>16.29551055385655</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.5094760097148</v>
+        <v>38.14408144289317</v>
       </c>
       <c r="D52" t="n">
-        <v>14.74440218387249</v>
+        <v>14.48633535699471</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.59412340418062</v>
+        <v>39.41170113965738</v>
       </c>
       <c r="D53" t="n">
-        <v>15.96752699510663</v>
+        <v>13.94746279887272</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.25181921885873</v>
+        <v>35.86482727721901</v>
       </c>
       <c r="D54" t="n">
-        <v>16.14274328004674</v>
+        <v>17.62990549242856</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.54348849770253</v>
+        <v>35.63198290276548</v>
       </c>
       <c r="D55" t="n">
-        <v>13.8453269277574</v>
+        <v>13.66959258258442</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>32.73043333864899</v>
+        <v>33.60597879746704</v>
       </c>
       <c r="D56" t="n">
-        <v>16.6754043184735</v>
+        <v>14.22038084669774</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.70043006059044</v>
+        <v>34.27393563850754</v>
       </c>
       <c r="D57" t="n">
-        <v>15.05975360018777</v>
+        <v>16.27579267254608</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.71832205274966</v>
+        <v>31.81799754222366</v>
       </c>
       <c r="D58" t="n">
-        <v>15.79402480958485</v>
+        <v>13.67805946052586</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.63467012172518</v>
+        <v>32.5817174046725</v>
       </c>
       <c r="D59" t="n">
-        <v>14.57896240126579</v>
+        <v>16.00724707642384</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.06786733963307</v>
+        <v>32.11934584314315</v>
       </c>
       <c r="D60" t="n">
-        <v>13.96260533931744</v>
+        <v>14.54871289276397</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.96359467372245</v>
+        <v>26.87439791397539</v>
       </c>
       <c r="D61" t="n">
-        <v>16.99804259230308</v>
+        <v>15.24359944748482</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.68848474328604</v>
+        <v>31.33620561530893</v>
       </c>
       <c r="D62" t="n">
-        <v>15.68384368149915</v>
+        <v>15.89815961209685</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.74605323982553</v>
+        <v>28.15082031769877</v>
       </c>
       <c r="D63" t="n">
-        <v>14.58521223784239</v>
+        <v>15.14662469586613</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.07290917131597</v>
+        <v>28.43441853884241</v>
       </c>
       <c r="D64" t="n">
-        <v>17.79357142146255</v>
+        <v>14.56108680863305</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.61846074606946</v>
+        <v>24.5996666883907</v>
       </c>
       <c r="D65" t="n">
-        <v>14.82006435543854</v>
+        <v>14.13670944072306</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.00854575005048</v>
+        <v>23.5135123031265</v>
       </c>
       <c r="D66" t="n">
-        <v>15.89174717901877</v>
+        <v>16.23467037621749</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.25953616030644</v>
+        <v>25.6208509447931</v>
       </c>
       <c r="D67" t="n">
-        <v>15.22964713153816</v>
+        <v>13.69023678679785</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.46860048703496</v>
+        <v>22.42319813207191</v>
       </c>
       <c r="D68" t="n">
-        <v>14.95314723931272</v>
+        <v>15.76115389358074</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.42131670817869</v>
+        <v>23.37025049226462</v>
       </c>
       <c r="D69" t="n">
-        <v>17.35356582672381</v>
+        <v>16.42994837712454</v>
       </c>
     </row>
   </sheetData>
